--- a/Foothold_city/Resources/Data/data_03.xlsx
+++ b/Foothold_city/Resources/Data/data_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komle\source\PycharmProjects\Foothold-city\Foothold_city\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CEE4C-CD90-41DE-80DA-729D4AFF800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E629B1D3-E2F1-4690-B9F2-D007177DC804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19770" yWindow="1725" windowWidth="17280" windowHeight="9990" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="9983" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Город</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Духовная</t>
+  </si>
+  <si>
+    <t>dkdkdkkdd</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -511,7 +514,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -545,6 +550,9 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -577,6 +585,9 @@
       <c r="J3">
         <v>3</v>
       </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -609,6 +620,9 @@
       <c r="J4">
         <v>2</v>
       </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -641,6 +655,9 @@
       <c r="J5">
         <v>4</v>
       </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -673,6 +690,9 @@
       <c r="J6">
         <v>3</v>
       </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -705,6 +725,9 @@
       <c r="J7">
         <v>2</v>
       </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -769,6 +792,9 @@
       <c r="J9">
         <v>3</v>
       </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -801,6 +827,9 @@
       <c r="J10">
         <v>2</v>
       </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -833,6 +862,9 @@
       <c r="J11">
         <v>3</v>
       </c>
+      <c r="K11">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -864,6 +896,9 @@
       </c>
       <c r="J12">
         <v>1</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">

--- a/Foothold_city/Resources/Data/data_03.xlsx
+++ b/Foothold_city/Resources/Data/data_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komle\source\PycharmProjects\Foothold-city\Foothold_city\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\Foothold-city\Foothold_city\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E629B1D3-E2F1-4690-B9F2-D007177DC804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25F720-DC24-437E-A9FB-3A03589D4F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="9983" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Город</t>
   </si>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>dkdkdkkdd</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -462,28 +486,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311ED756-9EF4-4360-967A-F6DC9DAE0658}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +543,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -554,7 +578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -589,7 +613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -624,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -659,7 +683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -694,7 +718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -729,7 +753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -761,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -796,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -831,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -866,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -901,17 +925,285 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>32456</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>167</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>103</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>15678</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>222</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>32456</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>167</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>103</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>15678</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>222</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>97</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>32456</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>167</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>15678</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>222</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>97</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>32456</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>167</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>15678</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>222</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>97</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Foothold_city/Resources/Data/data_03.xlsx
+++ b/Foothold_city/Resources/Data/data_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\Foothold-city\Foothold_city\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komle\source\PycharmProjects\Foothold-city\Foothold_city\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25F720-DC24-437E-A9FB-3A03589D4F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2677C65-0394-4E55-8C59-584D033DD8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Город</t>
   </si>
@@ -97,33 +97,6 @@
   </si>
   <si>
     <t>Духовная</t>
-  </si>
-  <si>
-    <t>dkdkdkkdd</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
 </sst>
 </file>
@@ -486,28 +459,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311ED756-9EF4-4360-967A-F6DC9DAE0658}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,12 +511,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -574,11 +545,8 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -609,11 +577,8 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -644,11 +609,8 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -679,11 +641,8 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -702,23 +661,14 @@
       <c r="F6">
         <v>212</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
       <c r="H6">
         <v>105</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -743,17 +693,11 @@
       <c r="H7">
         <v>108</v>
       </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -785,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -816,26 +760,17 @@
       <c r="J9">
         <v>3</v>
       </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>18901</v>
       </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
       <c r="F10">
         <v>205</v>
       </c>
@@ -851,11 +786,8 @@
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -886,11 +818,8 @@
       <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -921,289 +850,18 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>32456</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <v>167</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>103</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>15678</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>222</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>97</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>32456</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>167</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>103</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>15678</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>222</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>97</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>32456</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>28</v>
-      </c>
-      <c r="F17">
-        <v>167</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>103</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>15678</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>222</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>97</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>32456</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>28</v>
-      </c>
-      <c r="F19">
-        <v>167</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>103</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>15678</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>222</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>97</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Foothold_city/Resources/Data/data_03.xlsx
+++ b/Foothold_city/Resources/Data/data_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komle\source\PycharmProjects\Foothold-city\Foothold_city\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\Foothold-city\Foothold_city\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2677C65-0394-4E55-8C59-584D033DD8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F341E2D-77B5-4970-86F1-0060A5163EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1F992B9-CB4B-4A7A-BB7E-BF42F245AF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Город</t>
   </si>
@@ -33,60 +33,12 @@
     <t>Население</t>
   </si>
   <si>
-    <t>Избирательная компания</t>
-  </si>
-  <si>
-    <t>Связи с городами</t>
-  </si>
-  <si>
-    <t>Предприятия</t>
-  </si>
-  <si>
-    <t>Коэффициент рождаемости</t>
-  </si>
-  <si>
     <t>Качество городской среды</t>
   </si>
   <si>
-    <t>IQ города</t>
-  </si>
-  <si>
-    <t>Объекты населения</t>
-  </si>
-  <si>
     <t>Религиозные конфессии</t>
   </si>
   <si>
-    <t>Барабинск</t>
-  </si>
-  <si>
-    <t>Болотное</t>
-  </si>
-  <si>
-    <t>Колывань</t>
-  </si>
-  <si>
-    <t>Купино</t>
-  </si>
-  <si>
-    <t>Мошково</t>
-  </si>
-  <si>
-    <t>Татарск</t>
-  </si>
-  <si>
-    <t>Черепаново</t>
-  </si>
-  <si>
-    <t>Чулым</t>
-  </si>
-  <si>
-    <t>Чистоозерное</t>
-  </si>
-  <si>
-    <t>Чаны</t>
-  </si>
-  <si>
     <t>Политическая</t>
   </si>
   <si>
@@ -97,13 +49,34 @@
   </si>
   <si>
     <t>Духовная</t>
+  </si>
+  <si>
+    <t>п.г.т.Колывань</t>
+  </si>
+  <si>
+    <t>г. Сузун</t>
+  </si>
+  <si>
+    <t>г. Куйбышев</t>
+  </si>
+  <si>
+    <t>Средняя численность работников</t>
+  </si>
+  <si>
+    <t>% территорий промпредприятий</t>
+  </si>
+  <si>
+    <t>Коэффициент смертности</t>
+  </si>
+  <si>
+    <t>Объекты ИАН</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +93,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,396 +456,155 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13621</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3470</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20.74</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15621</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3936</v>
+      </c>
+      <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+      <c r="E4" s="2">
+        <v>18.04</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="5" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>34567</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>189</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>102</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="B5" s="2">
+        <v>41494</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10183</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>12345</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>245</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>95</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>23456</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>156</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>110</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>45678</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>212</v>
-      </c>
-      <c r="H6">
-        <v>105</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>30123</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>178</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>108</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>40567</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>234</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>98</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>25678</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>199</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>115</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>18901</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>205</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>101</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>32456</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>167</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>103</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>15678</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>222</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>97</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
